--- a/prep-ig-ror33/ig/StructureDefinition-ror-measurereport.xlsx
+++ b/prep-ig-ror33/ig/StructureDefinition-ror-measurereport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0-snapshot-1</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T10:52:16+00:00</t>
+    <t>2025-03-13T16:46:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/prep-ig-ror33/ig/StructureDefinition-ror-measurereport.xlsx
+++ b/prep-ig-ror33/ig/StructureDefinition-ror-measurereport.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T16:46:17+00:00</t>
+    <t>2025-03-13T16:47:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
